--- a/ig/ch-elm/ValueSet-ch-elm-results-mea-org.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-mea-org.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from SNOMED CT" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-20T16:32:03+00:00</t>
+    <t>2024-09-24T11:18:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-results-mea-org.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-mea-org.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.0</t>
+    <t>1.6.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-24T11:18:39+00:00</t>
+    <t>2024-10-31T11:15:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-results-mea-org.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-mea-org.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.6.0</t>
+    <t>1.7.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-31T11:15:20+00:00</t>
+    <t>2024-11-28T14:18:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-results-mea-org.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-mea-org.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.7.0</t>
+    <t>1.8.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-28T14:18:34+00:00</t>
+    <t>2025-02-04T09:19:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-results-mea-org.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-mea-org.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.0</t>
+    <t>1.9.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T09:19:33+00:00</t>
+    <t>2025-03-18T17:14:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-results-mea-org.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-mea-org.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.9.0</t>
+    <t>1.9.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-18T17:14:46+00:00</t>
+    <t>2025-03-26T08:01:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-results-mea-org.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-mea-org.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.9.1</t>
+    <t>1.10.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-26T08:01:17+00:00</t>
+    <t>2025-06-23T21:17:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-results-mea-org.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-mea-org.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.10.0</t>
+    <t>1.11.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-23T21:17:45+00:00</t>
+    <t>2025-08-13T07:34:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-results-mea-org.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-mea-org.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.11.0</t>
+    <t>1.12.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-13T07:34:00+00:00</t>
+    <t>2025-10-21T11:52:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-results-mea-org.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-mea-org.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.12.0</t>
+    <t>1.13.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-21T11:52:21+00:00</t>
+    <t>2025-11-25T09:58:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-results-mea-org.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-mea-org.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.13.0</t>
+    <t>1.13.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T09:58:53+00:00</t>
+    <t>2026-01-21T11:21:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
